--- a/O_que_estava_no_drive/Fiacao LEDs fitas.xlsx
+++ b/O_que_estava_no_drive/Fiacao LEDs fitas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Automacao\Casa do Gui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Downloads\Guila-s-1\O_que_estava_no_drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC656AB7-F91D-408E-A5A2-8AEB24C7DD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8FF62D-C367-4CCC-A965-6EC7EC7AB2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AC9F08D-7C4B-415A-9D01-F3FF9EE530FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1AC9F08D-7C4B-415A-9D01-F3FF9EE530FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,14 @@
       <color rgb="FF001D35"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -199,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -219,6 +227,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,22 +648,22 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>3</v>
       </c>
@@ -742,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -783,7 +794,7 @@
         <v>1.3245833333333335E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>5</v>
       </c>
@@ -830,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>16</v>
       </c>
@@ -879,7 +890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>20</v>
       </c>
@@ -921,7 +932,7 @@
         <v>6.7433333333333331E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>12</v>
       </c>
@@ -970,7 +981,7 @@
         <v>30600.000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>12</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>6463878.3269961979</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>0.27766666666666667</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1145,7 +1156,7 @@
         <v>4.6962500000000011E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1187,7 +1198,7 @@
         <v>8.9250000000000024E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>0.60921388888888894</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1271,7 +1282,7 @@
         <v>0.16858333333333334</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>23</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>0.39100000000000007</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>30</v>
       </c>
@@ -1354,7 +1365,7 @@
         <v>2.2477777777777784E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>29</v>
       </c>
@@ -1387,7 +1398,7 @@
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$J$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>0.11662000000000002</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="9">
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$K$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>7.2887500000000008E-2</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>4.8591666666666672E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>33</v>
       </c>
@@ -1437,8 +1448,11 @@
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$L$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>0.18393055555555557</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>34</v>
       </c>
@@ -1479,8 +1493,11 @@
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$L$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>7.2250000000000009E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>34</v>
       </c>
@@ -1521,8 +1538,11 @@
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$L$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>3.8533333333333343E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>38</v>
       </c>
@@ -1564,7 +1584,7 @@
         <v>2.8900000000000012E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>37</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>6.5025000000000027E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>46</v>
       </c>
@@ -1647,8 +1667,11 @@
         <f>$N$6*(Tabela2[[#This Row],[Distância]]*2)/$L$2*Tabela2[[#This Row],[Corrente]]</f>
         <v>0.35888888888888892</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>45</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>8.4291666666666668E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>50</v>
       </c>
@@ -1731,7 +1754,7 @@
         <v>0.59500000000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>50</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>0.25500000000000006</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>39</v>
       </c>
@@ -1813,7 +1836,7 @@
         <v>0.48166666666666669</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>41</v>
       </c>
@@ -1871,13 +1894,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6622</v>
       </c>
@@ -1895,7 +1918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6624</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6622</v>
       </c>
@@ -1931,7 +1954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6623</v>
       </c>
@@ -1949,7 +1972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6681</v>
       </c>
@@ -1967,7 +1990,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6623</v>
       </c>
@@ -1985,7 +2008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6622</v>
       </c>
@@ -2003,7 +2026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6692</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>598.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6623</v>
       </c>
@@ -2039,7 +2062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6624</v>
       </c>
@@ -2057,7 +2080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6692</v>
       </c>
@@ -2075,7 +2098,7 @@
         <v>598.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6692</v>
       </c>
@@ -2093,7 +2116,7 @@
         <v>598.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6689</v>
       </c>
@@ -2111,7 +2134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6623</v>
       </c>
@@ -2129,7 +2152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6689</v>
       </c>
@@ -2147,7 +2170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7002</v>
       </c>
@@ -2165,7 +2188,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7002</v>
       </c>
@@ -2183,7 +2206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1022</v>
       </c>
@@ -2201,7 +2224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6681</v>
       </c>
@@ -2219,7 +2242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6623</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6689</v>
       </c>
@@ -2255,7 +2278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6622</v>
       </c>
@@ -2273,7 +2296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6689</v>
       </c>
@@ -2291,7 +2314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -2309,7 +2332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6689</v>
       </c>
@@ -2327,7 +2350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6681</v>
       </c>
@@ -2345,7 +2368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6623</v>
       </c>
@@ -2363,7 +2386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7002</v>
       </c>
@@ -2381,7 +2404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7010</v>
       </c>
@@ -2399,7 +2422,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7010</v>
       </c>
@@ -2417,7 +2440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6692</v>
       </c>
@@ -2435,7 +2458,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6681</v>
       </c>
@@ -2453,7 +2476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6623</v>
       </c>
@@ -2471,7 +2494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -2489,7 +2512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7002</v>
       </c>
@@ -2507,7 +2530,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C37" s="6">
         <f>SUMPRODUCT(B1:B35,C1:C35)</f>
         <v>5883.2999999999993</v>
